--- a/risk-assessment-template.xlsx
+++ b/risk-assessment-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\IMS PROJECT STUFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\Spring Project\SpringDrinksProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DA58F4-9DE5-4D00-939C-A88ADC83112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECA6338-2EBC-4244-9FC2-08BF95B217E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Risk Matrices</t>
   </si>
@@ -121,13 +121,70 @@
   </si>
   <si>
     <t>To keep my wrists safe for the future</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>I could get tired</t>
+  </si>
+  <si>
+    <t>Get enough sleep</t>
+  </si>
+  <si>
+    <t>Don't work on project for too long</t>
+  </si>
+  <si>
+    <t>Computer Vision Syndrome</t>
+  </si>
+  <si>
+    <t>My eyes could get strain</t>
+  </si>
+  <si>
+    <t>Avoid monitor glare, gives eyes breaks</t>
+  </si>
+  <si>
+    <t>Get up for walks reguarly</t>
+  </si>
+  <si>
+    <t>Leg Pain</t>
+  </si>
+  <si>
+    <t>I could get leg pain from sitting too long</t>
+  </si>
+  <si>
+    <t>To avoid leg pain</t>
+  </si>
+  <si>
+    <t>Bad Posture</t>
+  </si>
+  <si>
+    <t>I could develop bad posture from sitting at the computer</t>
+  </si>
+  <si>
+    <t>Keep back straight, get up reguarly</t>
+  </si>
+  <si>
+    <t>To keep my posture good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asteroid impact </t>
+  </si>
+  <si>
+    <t>An asteroid could hit my house</t>
+  </si>
+  <si>
+    <t>Run away</t>
+  </si>
+  <si>
+    <t>Don't get hit by an asteroid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,12 +580,12 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
@@ -537,12 +594,12 @@
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -559,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -579,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -599,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -619,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -639,7 +696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -659,7 +716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -682,7 +739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" outlineLevel="1">
+    <row r="12" spans="2:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -703,30 +760,108 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" ht="48" customHeight="1">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" ht="46.5" customHeight="1">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" ht="31.5" customHeight="1">
-      <c r="D17" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,6 +878,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD81232A85FB0F4BB9464A014F8CAB97" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6738aeaea2da593e576e0cc8edb81c05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8149294-debb-46a4-9f46-cbcdadd021ab" xmlns:ns3="fe0a249b-aa15-4600-9f8d-64c1b37f617f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04ae9df5660ad68d59a785e518b0422b" ns2:_="" ns3:_="">
     <xsd:import namespace="d8149294-debb-46a4-9f46-cbcdadd021ab"/>
@@ -959,20 +1100,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BD6D2F6-9AC3-4908-A36C-E9D9CCF4DE35}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BD6D2F6-9AC3-4908-A36C-E9D9CCF4DE35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B472E36-6A0C-4A65-A1A8-8456F83C5E18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65FF626D-9FAF-46DB-862C-9BF32D1B1C2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65FF626D-9FAF-46DB-862C-9BF32D1B1C2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B472E36-6A0C-4A65-A1A8-8456F83C5E18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8149294-debb-46a4-9f46-cbcdadd021ab"/>
+    <ds:schemaRef ds:uri="fe0a249b-aa15-4600-9f8d-64c1b37f617f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>